--- a/NformTester/NformTester/keywordscripts/TST623_CheckConfigureSamplingIntervalTime.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST623_CheckConfigureSamplingIntervalTime.xlsx
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7613" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7614" uniqueCount="833">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3767,10 +3767,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4309,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F142" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4322,7 +4328,8 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4491,7 +4498,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4535,10 +4542,10 @@
         <v>68</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>71</v>
@@ -4554,9 +4561,9 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>830</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4577,11 +4584,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4607,8 +4612,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4634,10 +4643,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4654,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4666,7 +4673,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4695,7 +4702,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4724,7 +4731,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4753,7 +4760,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4782,7 +4789,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4810,10 +4817,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4841,7 +4848,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4866,11 +4873,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4892,9 +4897,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4921,7 +4928,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -4943,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -4953,6 +4960,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5520,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5867,7 +5878,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6097,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -6444,7 +6455,7 @@
         <v>10</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -6674,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -7021,7 +7032,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -7251,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -7598,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -7828,7 +7839,7 @@
         <v>2</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
@@ -8175,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
